--- a/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
@@ -2785,7 +2785,8 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Rx,
+until 11:00</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>

--- a/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
@@ -540,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -567,24 +607,56 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags 4-8</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 5-7</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -598,12 +670,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bags 2</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -614,8 +702,16 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 2</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>

--- a/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
@@ -3050,7 +3050,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3188,13 +3188,12 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3260,12 +3259,13 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3453,13 +3453,12 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3502,9 +3501,22 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3597,11 +3609,7 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -3650,7 +3658,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3689,7 +3697,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3728,7 +3736,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3763,7 +3771,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3805,7 +3813,11 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+        </is>
+      </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
@@ -3852,21 +3864,9 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -3906,15 +3906,19 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -3949,19 +3953,15 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>(stools)</t>
-        </is>
-      </c>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -4000,15 +4000,19 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>(stools)</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -4047,12 +4051,12 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -4094,12 +4098,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -4133,12 +4137,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4172,12 +4176,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -4207,12 +4211,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4254,12 +4258,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4301,12 +4305,12 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4348,12 +4352,12 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4393,8 +4397,16 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>

--- a/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
@@ -4028,7 +4028,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -4068,16 +4068,8 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>

--- a/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
@@ -2317,7 +2317,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2412,10 +2416,14 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Charletta</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1st Day, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2471,7 +2479,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2530,14 +2538,10 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2602,10 +2606,14 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2673,7 +2681,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2736,10 +2744,14 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -2809,7 +2821,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2876,15 +2888,10 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Rx,
-until 11:00</t>
-        </is>
-      </c>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
@@ -2957,10 +2964,14 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Missy</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2nd Day, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -3034,10 +3045,15 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Rx,
+until 11:00</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3101,7 +3117,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3168,14 +3184,10 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Dan</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3239,14 +3251,10 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3311,7 +3319,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3370,7 +3378,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3433,7 +3441,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3488,7 +3496,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3548,7 +3556,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3595,7 +3603,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3642,7 +3650,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3686,9 +3694,21 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>25)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3725,9 +3745,21 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>26)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>

--- a/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
@@ -2317,11 +2317,7 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2638,12 +2634,13 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Missy</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store, after c-store</t>
+          <t>3rd day, 
+work w/ Nate</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2705,12 +2702,12 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, after c-store</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2764,7 +2761,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -2837,7 +2834,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -2908,7 +2905,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -2969,7 +2966,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2nd Day, work w/ Carlie</t>
+          <t>2nd Day, work w/ Jeremiah</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -2988,7 +2985,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3066,7 +3063,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3133,7 +3130,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3200,7 +3197,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3267,13 +3264,12 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3339,12 +3335,13 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3383,7 +3380,8 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3398,7 +3396,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3461,7 +3459,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3516,13 +3514,13 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Trainer</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3569,9 +3567,22 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3664,11 +3675,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3717,7 +3724,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3768,7 +3775,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3803,7 +3810,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3847,7 +3854,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3897,7 +3904,11 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
@@ -3936,21 +3947,9 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -3985,15 +3984,19 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -4032,19 +4035,15 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>(stools)</t>
-        </is>
-      </c>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -4083,15 +4082,19 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>(stools)</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -4122,12 +4125,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -4161,12 +4164,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4200,12 +4203,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -4235,12 +4238,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4282,12 +4285,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4329,12 +4332,12 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4376,12 +4379,12 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4423,12 +4426,12 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4468,8 +4471,16 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>

--- a/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
@@ -1582,7 +1582,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2499,12 +2499,12 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>@ Store, after c-store</t>
+          <t>2nd day work w/ Angela</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2534,10 +2534,14 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2546,10 +2550,14 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2558,10 +2566,14 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store, after c-store</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2602,14 +2614,10 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2618,14 +2626,10 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -2634,15 +2638,10 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Missy</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>3rd day, 
-work w/ Nate</t>
-        </is>
-      </c>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2678,21 +2677,17 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
@@ -2702,12 +2697,13 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Missy</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>@ Store, after c-store</t>
+          <t>3rd day, 
+work w/ Nate</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2741,14 +2737,10 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -2761,12 +2753,12 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, after c-store</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -2818,13 +2810,17 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
@@ -2834,12 +2830,13 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -2885,15 +2882,19 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Missy</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2nd Day, work w/ Jeremiah</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2905,7 +2906,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -2961,21 +2962,18 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Missy</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2nd Day, work w/ Jeremiah</t>
+          <t>Rx,
+until 11:00</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
@@ -2985,7 +2983,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3042,15 +3040,10 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Rx,
-until 11:00</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3063,7 +3056,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3114,7 +3107,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3130,7 +3123,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3181,7 +3174,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3197,7 +3190,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3248,10 +3241,14 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3264,7 +3261,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3315,12 +3312,13 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -3335,13 +3333,12 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3375,13 +3372,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3396,12 +3392,13 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3439,7 +3436,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3459,7 +3456,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3494,7 +3491,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3514,13 +3511,12 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3554,7 +3550,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3574,13 +3570,13 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Trainer</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3614,7 +3610,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3627,9 +3623,22 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3661,7 +3670,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3708,7 +3717,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3722,11 +3731,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3752,21 +3757,9 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>26)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3775,7 +3768,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3810,7 +3803,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3854,7 +3847,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3906,7 +3899,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3948,7 +3941,11 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+        </is>
+      </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
@@ -3982,21 +3979,9 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -4035,15 +4020,19 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -4082,19 +4071,15 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>(stools)</t>
-        </is>
-      </c>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -4125,15 +4110,19 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>(stools)</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4164,12 +4153,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4203,15 +4192,19 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Until 10:30</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4238,12 +4231,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4285,12 +4278,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4332,12 +4325,12 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4379,12 +4372,12 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4426,12 +4419,12 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4473,12 +4466,12 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4518,8 +4511,16 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>

--- a/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
@@ -3550,7 +3550,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3710,21 +3710,9 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>25)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>

--- a/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Milwaukee Schedule.xlsx
@@ -4018,7 +4018,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Red Van available, Equip</t>
+          <t>Wht Camry available, Equip</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
